--- a/MainTop/21.03.2025/таня месяц с 21.02.2025 по 21.03.2025/p1.xlsx
+++ b/MainTop/21.03.2025/таня месяц с 21.02.2025 по 21.03.2025/p1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,35 +441,10 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Среднее количество заказов в день, шт</t>
+          <t>Num_Copies</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Остатки склад ВБ, шт</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Остатки МП, шт</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>дней</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Num_Copies</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>сумма</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Тип упорядочить</t>
         </is>
@@ -478,28 +453,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Пионы надпись</t>
+          <t>Термонаклейка Белый волк с цветами и узорами</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>152</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30</v>
-      </c>
-      <c r="E2" t="n">
-        <v>20</v>
-      </c>
-      <c r="F2" t="n">
-        <v>86</v>
-      </c>
-      <c r="G2" t="n">
-        <v>778</v>
-      </c>
-      <c r="H2" t="inlineStr">
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -508,28 +468,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Термонаклейка Аист оранжевый круг</t>
+          <t>Термонаклейка Бабочка синяя Blue butterfly</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>67</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20</v>
-      </c>
-      <c r="F3" t="n">
-        <v>46</v>
-      </c>
-      <c r="G3" t="n">
-        <v>778</v>
-      </c>
-      <c r="H3" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -538,28 +483,13 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Тюльпаны 5шт белые</t>
+          <t>Термонаклейка Бабочка зеленная листья</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>87</v>
-      </c>
-      <c r="D4" t="n">
-        <v>94</v>
-      </c>
-      <c r="E4" t="n">
-        <v>20</v>
-      </c>
-      <c r="F4" t="n">
-        <v>40</v>
-      </c>
-      <c r="G4" t="n">
-        <v>778</v>
-      </c>
-      <c r="H4" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -568,28 +498,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Синий Акварель</t>
+          <t>Термонаклейка Золотой лев в изысканном узоре</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>57</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9</v>
-      </c>
-      <c r="E5" t="n">
-        <v>20</v>
-      </c>
-      <c r="F5" t="n">
-        <v>38</v>
-      </c>
-      <c r="G5" t="n">
-        <v>778</v>
-      </c>
-      <c r="H5" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -598,28 +513,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Пионы розовый Peonies</t>
+          <t>Термонаклейка Лес Гитара Закат</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>35</v>
-      </c>
-      <c r="E6" t="n">
-        <v>20</v>
-      </c>
-      <c r="F6" t="n">
-        <v>26</v>
-      </c>
-      <c r="G6" t="n">
-        <v>778</v>
-      </c>
-      <c r="H6" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -628,150 +528,150 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Термонаклейка Лотос розовый золотистый</t>
+          <t>Термонаклейка Девочка Ангел с хвостами</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" t="n">
-        <v>18</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" t="n">
-        <v>24</v>
-      </c>
-      <c r="G7" t="n">
-        <v>778</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1_а4</t>
+        <v>16</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2_а5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Пионы красные Pionies</t>
+          <t>Термонаклейка Девочка с маком в руках</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>24</v>
-      </c>
-      <c r="D8" t="n">
-        <v>25</v>
-      </c>
-      <c r="E8" t="n">
-        <v>20</v>
-      </c>
-      <c r="F8" t="n">
-        <v>24</v>
-      </c>
-      <c r="G8" t="n">
-        <v>778</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>1_а4</t>
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2_а5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Синии Амариллис</t>
+          <t>Термонаклейка Ёжики в кружках с сердечками</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>41</v>
-      </c>
-      <c r="D9" t="n">
-        <v>15</v>
-      </c>
-      <c r="E9" t="n">
-        <v>20</v>
-      </c>
-      <c r="F9" t="n">
-        <v>24</v>
-      </c>
-      <c r="G9" t="n">
-        <v>778</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1_а4</t>
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2_а5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Термонаклейка Подсолнухи Цветы</t>
+          <t>Термонаклейка Звезды Белые термозаплатка</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>24</v>
-      </c>
-      <c r="D10" t="n">
-        <v>22</v>
-      </c>
-      <c r="E10" t="n">
-        <v>20</v>
-      </c>
-      <c r="F10" t="n">
-        <v>22</v>
-      </c>
-      <c r="G10" t="n">
-        <v>778</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1_а4</t>
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2_а5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Термонаклейка Бабочка синяя Blue butterfly</t>
+          <t>Термонаклейка Мишка красная гоночная машина</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>24</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>20</v>
-      </c>
-      <c r="F11" t="n">
-        <v>22</v>
-      </c>
-      <c r="G11" t="n">
-        <v>778</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>1_а4</t>
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Термонаклейка Формы термозаплатка</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Термонаклейка Мишка красная гоночная машина</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девочка в зелёном с подсолнухом</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Термонаклейка Зевающий зайка в пижаме</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Термонаклейка Собачка красный бантик</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2_а5</t>
         </is>
       </c>
     </row>

--- a/MainTop/21.03.2025/таня месяц с 21.02.2025 по 21.03.2025/p1.xlsx
+++ b/MainTop/21.03.2025/таня месяц с 21.02.2025 по 21.03.2025/p1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,10 +441,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Среднее количество заказов в день, шт</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Остатки склад ВБ, шт</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Остатки МП, шт</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>дней</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Num_Copies</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>сумма</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Тип упорядочить</t>
         </is>
@@ -453,13 +478,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Термонаклейка Белый волк с цветами и узорами</t>
+          <t>Термонаклейка Цветы Пионы надпись</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="inlineStr">
+        <v>5.8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>152</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="n">
+        <v>86</v>
+      </c>
+      <c r="G2" t="n">
+        <v>778</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -468,13 +508,28 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Термонаклейка Бабочка синяя Blue butterfly</t>
+          <t>Термонаклейка Аист оранжевый круг</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="inlineStr">
+        <v>2.7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F3" t="n">
+        <v>46</v>
+      </c>
+      <c r="G3" t="n">
+        <v>778</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -483,13 +538,28 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Термонаклейка Бабочка зеленная листья</t>
+          <t>Термонаклейка Цветы Тюльпаны 5шт белые</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="inlineStr">
+        <v>6.7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>87</v>
+      </c>
+      <c r="D4" t="n">
+        <v>94</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G4" t="n">
+        <v>778</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -498,13 +568,28 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Термонаклейка Золотой лев в изысканном узоре</t>
+          <t>Термонаклейка Цветы Синий Акварель</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
+        <v>2.3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>57</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" t="n">
+        <v>38</v>
+      </c>
+      <c r="G5" t="n">
+        <v>778</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -513,13 +598,28 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Термонаклейка Лес Гитара Закат</t>
+          <t>Термонаклейка Цветы Пионы розовый Peonies</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" t="n">
+        <v>26</v>
+      </c>
+      <c r="G6" t="n">
+        <v>778</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -528,150 +628,150 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Термонаклейка Девочка Ангел с хвостами</t>
+          <t>Термонаклейка Лотос розовый золотистый</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2_а5</t>
+        <v>2.1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>24</v>
+      </c>
+      <c r="G7" t="n">
+        <v>778</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1_а4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Термонаклейка Девочка с маком в руках</t>
+          <t>Термонаклейка Цветы Пионы красные Pionies</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2_а5</t>
+        <v>2.4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24</v>
+      </c>
+      <c r="G8" t="n">
+        <v>778</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1_а4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Термонаклейка Ёжики в кружках с сердечками</t>
+          <t>Термонаклейка Цветы Синии Амариллис</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2_а5</t>
+        <v>1.9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>41</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15</v>
+      </c>
+      <c r="E9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F9" t="n">
+        <v>24</v>
+      </c>
+      <c r="G9" t="n">
+        <v>778</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1_а4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Термонаклейка Звезды Белые термозаплатка</t>
+          <t>Термонаклейка Подсолнухи Цветы</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2_а5</t>
+        <v>2.2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>24</v>
+      </c>
+      <c r="D10" t="n">
+        <v>22</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>22</v>
+      </c>
+      <c r="G10" t="n">
+        <v>778</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1_а4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Термонаклейка Мишка красная гоночная машина</t>
+          <t>Термонаклейка Бабочка синяя Blue butterfly</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Термонаклейка Формы термозаплатка</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Термонаклейка Мишка красная гоночная машина</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Термонаклейка Девочка в зелёном с подсолнухом</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Термонаклейка Зевающий зайка в пижаме</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Термонаклейка Собачка красный бантик</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2_а5</t>
+        <v>1.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>24</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20</v>
+      </c>
+      <c r="F11" t="n">
+        <v>22</v>
+      </c>
+      <c r="G11" t="n">
+        <v>778</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1_а4</t>
         </is>
       </c>
     </row>
